--- a/results/results_formatted/evaluation_freeRoaming20_run5_formatted.xlsx
+++ b/results/results_formatted/evaluation_freeRoaming20_run5_formatted.xlsx
@@ -1,25 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hamza\Desktop\bro usb n papa\results (free roaming)\editted\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HaZa\Music\APP-RAS paper results\analysis\results (free roaming)\formatted\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC817D6-2A65-4A8C-A406-3EF221F6E55B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="evaluation_freeRoaming20_run5" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="29">
   <si>
     <t>charging</t>
   </si>
@@ -92,11 +101,26 @@
   <si>
     <t>Final Battery level (battery when task finished)</t>
   </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Total Time</t>
+  </si>
+  <si>
+    <t>Waiting Time</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>Charging</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -233,7 +257,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,8 +437,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -529,6 +559,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -574,9 +619,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -897,29 +948,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M113"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="H118" sqref="H118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -960,7 +1011,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -992,7 +1043,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1033,7 +1084,7 @@
         <v>80.61</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1074,7 +1125,7 @@
         <v>61.3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1115,7 +1166,7 @@
         <v>64.86</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1156,7 +1207,7 @@
         <v>67.959999999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -1197,7 +1248,7 @@
         <v>76.91</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -1238,7 +1289,7 @@
         <v>51.34</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -1279,7 +1330,7 @@
         <v>55.83</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -1320,7 +1371,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -1361,7 +1412,7 @@
         <v>42.93</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -1402,7 +1453,7 @@
         <v>38.86</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -1443,7 +1494,7 @@
         <v>29.34</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -1484,7 +1535,7 @@
         <v>16.37</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -1525,7 +1576,7 @@
         <v>23.09</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -1566,7 +1617,7 @@
         <v>27.07</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -1607,7 +1658,7 @@
         <v>24.48</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -1648,7 +1699,7 @@
         <v>2.57</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
@@ -1689,7 +1740,7 @@
         <v>4.63</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -1730,7 +1781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
@@ -1771,7 +1822,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -1812,7 +1863,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
@@ -1853,7 +1904,7 @@
         <v>5.48</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
@@ -1894,7 +1945,7 @@
         <v>13.45</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -1926,7 +1977,7 @@
         <v>28.2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -1958,7 +2009,7 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -1990,7 +2041,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -2022,7 +2073,7 @@
         <v>28.74</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -2054,7 +2105,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -2086,7 +2137,7 @@
         <v>25.16</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -2127,7 +2178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
@@ -2168,7 +2219,7 @@
         <v>68.27</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>2</v>
       </c>
@@ -2209,7 +2260,7 @@
         <v>66.23</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>2</v>
       </c>
@@ -2250,7 +2301,7 @@
         <v>56.01</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -2282,7 +2333,7 @@
         <v>22.05</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>2</v>
       </c>
@@ -2323,7 +2374,7 @@
         <v>53.49</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>2</v>
       </c>
@@ -2364,7 +2415,7 @@
         <v>73.790000000000006</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -2405,7 +2456,7 @@
         <v>66.34</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>2</v>
       </c>
@@ -2446,7 +2497,7 @@
         <v>40.65</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>2</v>
       </c>
@@ -2487,7 +2538,7 @@
         <v>29.64</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>2</v>
       </c>
@@ -2528,7 +2579,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>2</v>
       </c>
@@ -2569,7 +2620,7 @@
         <v>29.02</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>2</v>
       </c>
@@ -2610,7 +2661,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>2</v>
       </c>
@@ -2651,7 +2702,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>2</v>
       </c>
@@ -2692,7 +2743,7 @@
         <v>33.119999999999997</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>2</v>
       </c>
@@ -2733,7 +2784,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>2</v>
       </c>
@@ -2774,7 +2825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>2</v>
       </c>
@@ -2815,7 +2866,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
@@ -2847,7 +2898,7 @@
         <v>22.95</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>2</v>
       </c>
@@ -2888,7 +2939,7 @@
         <v>48.74</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>2</v>
       </c>
@@ -2929,7 +2980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>2</v>
       </c>
@@ -2970,7 +3021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
@@ -3002,7 +3053,7 @@
         <v>26.65</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -3034,7 +3085,7 @@
         <v>29.95</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
@@ -3066,7 +3117,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>2</v>
       </c>
@@ -3107,7 +3158,7 @@
         <v>17.95</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
@@ -3139,7 +3190,7 @@
         <v>28.95</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>2</v>
       </c>
@@ -3180,7 +3231,7 @@
         <v>68.989999999999995</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>2</v>
       </c>
@@ -3221,7 +3272,7 @@
         <v>59.73</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>0</v>
       </c>
@@ -3253,7 +3304,7 @@
         <v>26.15</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>2</v>
       </c>
@@ -3294,7 +3345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>2</v>
       </c>
@@ -3335,7 +3386,7 @@
         <v>51.4</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>2</v>
       </c>
@@ -3376,7 +3427,7 @@
         <v>68.27</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>2</v>
       </c>
@@ -3417,7 +3468,7 @@
         <v>61.2</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>2</v>
       </c>
@@ -3458,7 +3509,7 @@
         <v>28.12</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
@@ -3490,7 +3541,7 @@
         <v>28.05</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>2</v>
       </c>
@@ -3531,7 +3582,7 @@
         <v>22.24</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>2</v>
       </c>
@@ -3572,7 +3623,7 @@
         <v>68.63</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>2</v>
       </c>
@@ -3613,7 +3664,7 @@
         <v>27.44</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>2</v>
       </c>
@@ -3654,7 +3705,7 @@
         <v>10.07</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>2</v>
       </c>
@@ -3695,7 +3746,7 @@
         <v>19.55</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>2</v>
       </c>
@@ -3736,7 +3787,7 @@
         <v>60.49</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>2</v>
       </c>
@@ -3777,7 +3828,7 @@
         <v>36.31</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>2</v>
       </c>
@@ -3818,7 +3869,7 @@
         <v>32.869999999999997</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>2</v>
       </c>
@@ -3859,7 +3910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>2</v>
       </c>
@@ -3900,7 +3951,7 @@
         <v>7.86</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>0</v>
       </c>
@@ -3932,7 +3983,7 @@
         <v>25.55</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>0</v>
       </c>
@@ -3964,7 +4015,7 @@
         <v>23.85</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>2</v>
       </c>
@@ -4005,7 +4056,7 @@
         <v>28.82</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>2</v>
       </c>
@@ -4046,7 +4097,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>2</v>
       </c>
@@ -4087,7 +4138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>2</v>
       </c>
@@ -4128,7 +4179,7 @@
         <v>67.260000000000005</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>0</v>
       </c>
@@ -4160,7 +4211,7 @@
         <v>24.15</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>2</v>
       </c>
@@ -4201,7 +4252,7 @@
         <v>70.95</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>0</v>
       </c>
@@ -4233,7 +4284,7 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>0</v>
       </c>
@@ -4265,7 +4316,7 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>2</v>
       </c>
@@ -4306,7 +4357,7 @@
         <v>25.29</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>2</v>
       </c>
@@ -4347,7 +4398,7 @@
         <v>68.900000000000006</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>2</v>
       </c>
@@ -4388,7 +4439,7 @@
         <v>64.52</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>2</v>
       </c>
@@ -4429,7 +4480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>2</v>
       </c>
@@ -4470,7 +4521,7 @@
         <v>41.97</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>0</v>
       </c>
@@ -4502,7 +4553,7 @@
         <v>28.95</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>2</v>
       </c>
@@ -4543,7 +4594,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>2</v>
       </c>
@@ -4584,7 +4635,7 @@
         <v>64.900000000000006</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>2</v>
       </c>
@@ -4625,7 +4676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>2</v>
       </c>
@@ -4666,7 +4717,7 @@
         <v>26.21</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>0</v>
       </c>
@@ -4698,7 +4749,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>2</v>
       </c>
@@ -4739,7 +4790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>2</v>
       </c>
@@ -4780,7 +4831,7 @@
         <v>4.93</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>2</v>
       </c>
@@ -4821,7 +4872,7 @@
         <v>61.57</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>0</v>
       </c>
@@ -4853,7 +4904,7 @@
         <v>26.15</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>2</v>
       </c>
@@ -4894,7 +4945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>2</v>
       </c>
@@ -4935,7 +4986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>2</v>
       </c>
@@ -4976,7 +5027,7 @@
         <v>35.28</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>0</v>
       </c>
@@ -5008,7 +5059,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>10</v>
       </c>
@@ -5019,7 +5070,7 @@
         <v>242.84</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>10</v>
       </c>
@@ -5030,7 +5081,7 @@
         <v>410.91</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>10</v>
       </c>
@@ -5041,7 +5092,7 @@
         <v>496.05</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>10</v>
       </c>
@@ -5052,7 +5103,7 @@
         <v>223.09</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>10</v>
       </c>
@@ -5063,7 +5114,7 @@
         <v>56.56</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>10</v>
       </c>
@@ -5074,7 +5125,7 @@
         <v>268.08999999999997</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>10</v>
       </c>
@@ -5085,7 +5136,7 @@
         <v>249.96</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>10</v>
       </c>
@@ -5094,6 +5145,54 @@
       </c>
       <c r="C113">
         <v>289.77999999999997</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E115" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E116" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F116" s="3">
+        <f>COUNTIF(A2:A105,"transportation")</f>
+        <v>80</v>
+      </c>
+      <c r="G116" s="3">
+        <f>AVERAGEIF(A2:A105,"transportation",F2:F105)</f>
+        <v>165.57375000000005</v>
+      </c>
+      <c r="H116" s="3">
+        <f>AVERAGEIF(A2:A105,"transportation",H2:H105)</f>
+        <v>87.592249999999993</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E117" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F117" s="3">
+        <f>COUNTIF(A2:A105,"charging")</f>
+        <v>24</v>
+      </c>
+      <c r="G117" s="3">
+        <f>AVERAGEIF(A2:A105,"charging",F2:F105)</f>
+        <v>44.095833333333339</v>
+      </c>
+      <c r="H117" s="3">
+        <f>AVERAGEIF(A2:A105,"charging",H2:H105)</f>
+        <v>0.62791666666666657</v>
       </c>
     </row>
   </sheetData>
